--- a/bots/crawl_ch/output/bread_coop_2023-02-02.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-02.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4450,7 +4450,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6501,13 +6501,13 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Pasquier Milchbrötchen 10St 3.50 Schweizer Franken</t>
+          <t>Pasquier Milchbrötchen 10St - Online kein Bestand 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8207,7 +8207,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8422,7 +8422,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9558,31 +9558,31 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>6832128</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -9591,12 +9591,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9616,42 +9616,46 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3041596</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E131" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -9660,12 +9664,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1.30/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9675,7 +9679,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9690,41 +9694,37 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -9733,12 +9733,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9758,42 +9758,42 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6832128</t>
+          <t>3041596</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt</t>
+          <t>Naturaplan Bio Ballast Knäckebrot</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt/p/6832128</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/naturaplan-bio-ballast-knaeckebrot/p/3041596</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -9802,12 +9802,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>1.30/100g</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9827,22 +9827,22 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt 1.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Ballast Knäckebrot 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10629,45 +10629,45 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6668457</t>
+          <t>6358647</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.53/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10687,60 +10687,56 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>6358647</t>
+          <t>6668457</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback</t>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/betty-bossi-kuchenteig-eckig-ausgewallt-2x310g/p/6668457</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>0.53/100g</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10750,7 +10746,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -10760,18 +10756,22 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig eckig ausgewallt 2x310g 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -10982,7 +10982,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11124,7 +11124,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11193,31 +11193,31 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>6734419</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Prix Garantie MiniReiswaffeln</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -11226,12 +11226,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11251,46 +11251,46 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>6734419</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -11299,12 +11299,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11324,22 +11324,22 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11907,7 +11907,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11976,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12122,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12191,7 +12191,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12260,7 +12260,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12329,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12467,45 +12467,45 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>4886676</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E171" t="n">
         <v>4.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12530,51 +12530,51 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen 33% ab 3 Aktion 3.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>4886676</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Dar-Vida Cracker Leinsamen</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12594,56 +12594,56 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Leinsamen 33% ab 3 Aktion 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>3360446</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12663,56 +12663,56 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>3360446</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Old El Paso Maistortillas 8 Stück</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E174" t="n">
         <v>4.5</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -12732,18 +12732,18 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
+          <t>Old El Paso Maistortillas 8 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -12885,45 +12885,45 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6387363</t>
+          <t>3726500</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte</t>
+          <t>Pasquier Schokobrötchen 8St</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>1.28/100g</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -12943,60 +12943,56 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Schokobrötchen 8St - Online kein Bestand 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3726500</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-8st/p/3726500</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E178" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1.28/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13006,7 +13002,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13016,56 +13012,60 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr"/>
+          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>6387363</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Karma Snack Mais Hülsenfrüchte</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13085,22 +13085,22 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 5.20 Schweizer Franken</t>
+          <t>Karma Snack Mais Hülsenfrüchte 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13169,45 +13169,45 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13227,56 +13227,60 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13286,7 +13290,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13296,22 +13300,18 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13380,7 +13380,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13520,7 +13520,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14362,45 +14362,45 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E198" t="n">
         <v>4.5</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2.53/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14420,60 +14420,60 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 3.80 Schweizer Franken</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E199" t="n">
         <v>4.5</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>2.53/100g</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14493,22 +14493,22 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 1.95 Schweizer Franken</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14577,7 +14577,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14646,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14719,7 +14719,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14788,7 +14788,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15007,7 +15007,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15222,7 +15222,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15291,7 +15291,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15360,7 +15360,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15423,13 +15423,13 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake 2.10 Schweizer Franken</t>
+          <t>Betty Bossi Marmor Cake - Online kein Bestand 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15567,45 +15567,45 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>7027777</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Le Pain des fleurs Bio Buchweizen</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E215" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -15625,56 +15625,60 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Buchweizen 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>7027777</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-buchweizen/p/7027777</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E216" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15684,7 +15688,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -15694,22 +15698,18 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Buchweizen 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15778,7 +15778,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -15920,45 +15920,45 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6762461</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E220" t="n">
         <v>4.5</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15978,60 +15978,60 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E221" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16051,60 +16051,56 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>6762461</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Bischofberger Biber Vegan</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bischofberger-biber-vegan/p/6762461</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E222" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16114,7 +16110,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -16124,18 +16120,22 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr"/>
+          <t>Bischofberger Biber Vegan 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16354,7 +16354,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16427,7 +16427,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16500,7 +16500,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16636,7 +16636,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16774,7 +16774,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16910,7 +16910,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17052,7 +17052,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17263,7 +17263,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17332,7 +17332,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17401,7 +17401,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17543,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17612,7 +17612,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -17748,45 +17748,45 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>3958888</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Prix Garantie Madeleines 17 Stück</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E246" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17796,7 +17796,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17811,51 +17811,51 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>6776778</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E247" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Werner's</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17875,56 +17875,56 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
+          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>3958888</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-17-stueck/p/3958888</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E248" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17949,51 +17949,51 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines 17 Stück 2.80 Schweizer Franken</t>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>6776778</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Werners Markt Magenbrot</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/werners-markt-magenbrot/p/6776778</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Werner's</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18013,18 +18013,18 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.60 Schweizer Franken</t>
+          <t>Werners Markt Magenbrot 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -18170,45 +18170,45 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E252" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>1.82/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18218,7 +18218,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18228,60 +18228,56 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E253" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.82/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18291,7 +18287,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -18301,18 +18297,22 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -18381,7 +18381,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -18450,31 +18450,31 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>5653528</t>
+          <t>6667340</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell</t>
+          <t>Karma Bio Steinofenbrot mit Hanf</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E256" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -18483,12 +18483,12 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18498,7 +18498,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18508,46 +18508,46 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
+          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6667340</t>
+          <t>5653528</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf</t>
+          <t>Betty Bossi Tortenboden hell</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-bio-steinofenbrot-mit-hanf/p/6667340</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/betty-bossi-tortenboden-hell/p/5653528</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E257" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -18556,12 +18556,12 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18571,7 +18571,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18581,22 +18581,22 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Karma Bio Steinofenbrot mit Hanf 4.20 Schweizer Franken</t>
+          <t>Betty Bossi Tortenboden hell 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -18738,45 +18738,45 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18786,7 +18786,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18796,56 +18796,60 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N260" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18855,7 +18859,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18865,60 +18869,60 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18928,7 +18932,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -18938,60 +18942,56 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E263" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19001,7 +19001,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19011,18 +19011,18 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.80 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19164,7 +19164,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19233,45 +19233,43 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19281,7 +19279,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19291,12 +19289,12 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -19306,43 +19304,45 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>2</v>
+      </c>
       <c r="E268" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19352,7 +19352,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19362,12 +19362,12 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -19377,7 +19377,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19446,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19515,7 +19515,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19584,7 +19584,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19655,7 +19655,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19724,45 +19724,45 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Roland Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E274" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>3.56/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19772,7 +19772,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19782,56 +19782,56 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>3.56/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19841,7 +19841,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19851,18 +19851,18 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Roland Sport High Protein Choco 4.80 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -19929,7 +19929,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -20002,45 +20002,43 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>7037702</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
       <c r="E278" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20050,7 +20048,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20060,54 +20058,56 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>7037702</t>
+          <t>6528421</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch</t>
+          <t>Prix Garantie Madeleines choco</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-oliven-knoblauch/p/7037702</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>4</v>
+      </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20117,7 +20117,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20127,42 +20127,42 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Oliven &amp;amp; Knoblauch 2.95 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6528421</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-choco/p/6528421</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E280" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -20171,12 +20171,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20201,51 +20201,51 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines choco 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 20% Aktion 6.80 Schweizer Franken statt 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E281" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20255,7 +20255,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20265,56 +20265,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 20% Aktion 6.80 Schweizer Franken statt 8.50 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20324,7 +20324,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20334,56 +20334,56 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>1.51/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20393,7 +20393,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20403,39 +20403,39 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 3.25 Schweizer Franken</t>
+          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20472,35 +20472,35 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.45 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>1.51/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20531,7 +20531,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20541,18 +20541,18 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.45 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -20619,7 +20619,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -20688,7 +20688,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -20757,35 +20757,33 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
       <c r="E289" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -20795,7 +20793,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -20805,7 +20803,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -20815,48 +20813,46 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>2</v>
+      </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -20866,7 +20862,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20876,7 +20872,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20886,18 +20882,22 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -20966,45 +20966,45 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E292" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21024,56 +21024,60 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr"/>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E293" t="n">
         <v>4.5</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21083,7 +21087,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21093,60 +21097,60 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E294" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21156,7 +21160,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21166,58 +21170,56 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21227,7 +21229,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21237,42 +21239,40 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -21281,12 +21281,12 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21311,51 +21311,51 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21375,18 +21375,18 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 33% ab 3 Aktion 1.75 Schweizer Franken</t>
+          <t>Bonne Maman Madeleine 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -21601,45 +21601,45 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E301" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -21649,7 +21649,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -21659,56 +21659,56 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E302" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21718,7 +21718,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21728,56 +21728,60 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>3465424</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Hug Tartelettes-Bödeli 175G</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E303" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21787,7 +21791,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21797,60 +21801,56 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>3465424</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/hug-tartelettes-boedeli-175g/p/3465424</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E304" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21860,7 +21860,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21870,56 +21870,56 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Hug Tartelettes-Bödeli 175G 3.80 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D305" t="n">
+        <v>14</v>
+      </c>
+      <c r="E305" t="n">
         <v>3</v>
       </c>
-      <c r="E305" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -21929,7 +21929,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -21939,56 +21939,56 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E306" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -21998,7 +21998,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22008,18 +22008,18 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22088,28 +22088,28 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>5995949</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Madeleines Marmor 2x220g</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -22121,12 +22121,12 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.34/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22136,7 +22136,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22146,39 +22146,39 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+          <t>Madeleines Marmor 2x220g 5.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>5995949</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Madeleines Marmor 2x220g</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22190,12 +22190,12 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>1.34/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22205,7 +22205,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22215,18 +22215,18 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Madeleines Marmor 2x220g 5.90 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22297,45 +22297,43 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
-        </is>
-      </c>
-      <c r="D311" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
       <c r="E311" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.04/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22345,7 +22343,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22355,60 +22353,60 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E312" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22418,7 +22416,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22428,12 +22426,12 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -22443,43 +22441,45 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>10</v>
+      </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2.04/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22504,17 +22504,17 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 20% Aktion 3.80 Schweizer Franken statt 4.80 Schweizer Franken</t>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22587,7 +22587,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22656,7 +22656,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22798,7 +22798,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22867,7 +22867,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -22936,7 +22936,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23072,7 +23072,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23145,7 +23145,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23218,7 +23218,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23285,7 +23285,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23354,7 +23354,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23421,7 +23421,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23490,7 +23490,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23632,7 +23632,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23701,7 +23701,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23770,7 +23770,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-02 12:57:09</t>
+          <t>2023-02-02 20:49:55</t>
         </is>
       </c>
     </row>
